--- a/figures/EXP.xlsx
+++ b/figures/EXP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Failurer\Desktop\ructhesis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F97EBC-B7E5-4CEF-B4F5-ED7EFD613E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E5E06-CE71-4C9D-98A6-45C31D481D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>LUT-M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,14 @@
   </si>
   <si>
     <t>Idle (RF)</t>
+  </si>
+  <si>
+    <t>4096x4096-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4096x4096x2560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -687,7 +695,7 @@
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1106,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1121,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -1136,19 +1144,19 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>1041003104</v>
+        <v>4164530960</v>
       </c>
       <c r="C3">
-        <v>61045696</v>
+        <v>244192288</v>
       </c>
       <c r="D3">
-        <v>87068208</v>
+        <v>279738896</v>
       </c>
       <c r="E3">
-        <v>72515568</v>
+        <v>188399568</v>
       </c>
       <c r="F3">
-        <v>25217840</v>
+        <v>119439008</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1156,19 +1164,19 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>1005479072</v>
+        <v>4022439872</v>
       </c>
       <c r="C4">
-        <v>60923824</v>
+        <v>243702336</v>
       </c>
       <c r="D4">
-        <v>80273808</v>
+        <v>271231888</v>
       </c>
       <c r="E4">
-        <v>62262384</v>
+        <v>158965824</v>
       </c>
       <c r="F4">
-        <v>19591664</v>
+        <v>91929184</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1176,19 +1184,19 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>2.602617</v>
+        <v>10.447618</v>
       </c>
       <c r="C5">
-        <v>0.15282299999999999</v>
+        <v>0.589588</v>
       </c>
       <c r="D5">
-        <v>0.217889</v>
+        <v>0.69869800000000004</v>
       </c>
       <c r="E5">
-        <v>0.18152199999999999</v>
+        <v>0.46762399999999998</v>
       </c>
       <c r="F5">
-        <v>6.3263E-2</v>
+        <v>0.29881999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,23 +1225,23 @@
       </c>
       <c r="B7">
         <f>B3/B6</f>
-        <v>2.6025077599999999</v>
+        <v>10.411327399999999</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:F7" si="0">C3/C6</f>
-        <v>0.15261424000000001</v>
+        <v>0.61048071999999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.21767052000000001</v>
+        <v>0.69934724000000004</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.18128891999999999</v>
+        <v>0.47099891999999999</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6.3044600000000006E-2</v>
+        <v>0.29859752000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1242,23 +1250,23 @@
       </c>
       <c r="B8">
         <f>B3/B4</f>
-        <v>1.0353304538992931</v>
+        <v>1.035324602112536</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:F8" si="1">C3/C4</f>
-        <v>1.0020003997122702</v>
+        <v>1.0020104526203639</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.0846403100747382</v>
+        <v>1.0313643357450655</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>1.1646770223253899</v>
+        <v>1.1851576852141501</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.2871719318991997</v>
+        <v>1.2992501706530974</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1267,23 +1275,23 @@
       </c>
       <c r="B9">
         <f>B4/B3</f>
-        <v>0.9658751910887674</v>
+        <v>0.96588065033859183</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:F9" si="2">C4/C3</f>
-        <v>0.99800359389792193</v>
+        <v>0.99799358118959103</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>0.92196462800750423</v>
+        <v>0.96958947031806397</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.85860713385020992</v>
+        <v>0.84376957807037012</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.77689699038458493</v>
+        <v>0.76967471129699938</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1291,7 +1299,7 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1312,23 +1320,23 @@
       </c>
       <c r="B11">
         <f>B10/B5</f>
-        <v>6.1476582993194926</v>
+        <v>6.125798244154792</v>
       </c>
       <c r="C11">
         <f>C10/C5</f>
-        <v>104.69628262761496</v>
+        <v>27.13759438794548</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:F11" si="3">D10/D5</f>
-        <v>74.579258246171221</v>
+        <v>23.257544747516093</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>188.68236357025594</v>
+        <v>73.242605169965614</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>316.14055609123818</v>
+        <v>66.929924369185471</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1337,23 +1345,23 @@
       </c>
       <c r="B12">
         <f>B11/628</f>
-        <v>9.7892648078335871E-3</v>
+        <v>9.7544558027942551E-3</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:F12" si="4">C11/628</f>
-        <v>0.16671382584015121</v>
+        <v>4.3212729917110636E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
-        <v>0.11875678064676946</v>
+        <v>3.7034306922796328E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>0.30044962351951582</v>
+        <v>0.11662835218147391</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0.50340852880770415</v>
+        <v>0.10657631268978578</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,16 +1369,16 @@
         <v>46</v>
       </c>
       <c r="C14">
-        <f>4*1024*2+4096*1024</f>
-        <v>4202496</v>
+        <f>4*4096*2+4096*4096</f>
+        <v>16809984</v>
       </c>
       <c r="D14">
-        <f>4096*1024*4+1</f>
-        <v>16777217</v>
+        <f>4096*4096*4+1</f>
+        <v>67108865</v>
       </c>
       <c r="E14">
-        <f>4096*1024*2+4096*256</f>
-        <v>9437184</v>
+        <f>4096*4096*2+4096*256</f>
+        <v>34603008</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,15 +1387,15 @@
       </c>
       <c r="C15">
         <f>C4-C14</f>
-        <v>56721328</v>
+        <v>226892352</v>
       </c>
       <c r="D15">
         <f>D4-D14</f>
-        <v>63496591</v>
+        <v>204123023</v>
       </c>
       <c r="E15">
         <f>E4-E14</f>
-        <v>52825200</v>
+        <v>124362816</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,15 +1404,15 @@
       </c>
       <c r="C16">
         <f>C15/C4*C5</f>
-        <v>0.14228134315639804</v>
+        <v>0.54891967892739446</v>
       </c>
       <c r="D16">
         <f>D15/D4*D5</f>
-        <v>0.17235022308146888</v>
+        <v>0.52582441163427662</v>
       </c>
       <c r="E16">
         <f>E15/E4*E5</f>
-        <v>0.15400849338502681</v>
+        <v>0.36583358614983807</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -1463,7 +1471,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1486,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1510,29 +1518,29 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>217.846</v>
+        <v>698.69799999999998</v>
       </c>
       <c r="D3">
-        <v>172.35022308146901</v>
+        <v>525.824411634277</v>
       </c>
       <c r="E3">
-        <v>60.582999999999998</v>
+        <v>298.82</v>
       </c>
       <c r="F3">
-        <v>60.582999999999998</v>
+        <v>298.82</v>
       </c>
       <c r="G3">
-        <v>181.75299999999999</v>
+        <v>467.62400000000002</v>
       </c>
       <c r="H3">
-        <v>154.00849338502701</v>
+        <v>365.83358614983803</v>
       </c>
       <c r="I3">
-        <v>147.59800000000001</v>
+        <v>589.58799999999997</v>
       </c>
       <c r="J3">
-        <f>I3/15.8</f>
-        <v>9.3416455696202529</v>
+        <f>I3/15.799</f>
+        <v>37.318058104943347</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1540,36 +1548,36 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:L4" si="0">2*4096*1024*2560/1000000</f>
-        <v>21474.836480000002</v>
+        <f>2*4096*4096*2560/1000000</f>
+        <v>85899.345920000007</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <f t="shared" ref="D4:J4" si="0">2*4096*4096*2560/1000000</f>
+        <v>85899.345920000007</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <v>85899.345920000007</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <v>85899.345920000007</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <v>85899.345920000007</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <v>85899.345920000007</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <v>85899.345920000007</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <v>85899.345920000007</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1578,40 +1586,40 @@
       </c>
       <c r="C5">
         <f>C4/C3</f>
-        <v>98.578061933659569</v>
+        <v>122.94202347795472</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:H5" si="1">D4/D3</f>
-        <v>124.59999236466879</v>
+        <v>163.36127425697569</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>354.46967763233914</v>
+        <v>287.46183628940503</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>354.46967763233914</v>
+        <v>287.46183628940503</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>118.15395883424209</v>
+        <v>183.69319350589362</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>139.43929979440878</v>
+        <v>234.80442794778656</v>
       </c>
       <c r="I5">
         <f>I4/I3</f>
-        <v>145.49544356969608</v>
+        <v>145.69385048542375</v>
       </c>
       <c r="J5">
         <f>J4/J3</f>
-        <v>2298.8280084011981</v>
+        <v>2301.8171438192098</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1643,34 +1651,34 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>98.578061933659569</v>
+        <v>122.94202347795472</v>
       </c>
       <c r="D8">
-        <v>116.87945087597194</v>
+        <v>163.36127425697569</v>
       </c>
       <c r="E8">
-        <v>354.46967763233914</v>
+        <v>287.46183628940503</v>
       </c>
       <c r="F8">
-        <v>354.46967763233914</v>
+        <v>287.46183628940503</v>
       </c>
       <c r="G8">
-        <v>118.15395883424209</v>
+        <v>183.69319350589362</v>
       </c>
       <c r="H8">
-        <v>139.43929979440878</v>
+        <v>234.80442794778656</v>
       </c>
       <c r="I8">
-        <v>145.49544356969608</v>
+        <v>145.69385048542375</v>
       </c>
       <c r="J8">
-        <v>2298.8280084011981</v>
+        <v>2301.8171438192098</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>D8/C8</f>
-        <v>1.1856537710655006</v>
+        <v>1.3287667604256468</v>
       </c>
       <c r="E10">
         <f>F8/E8</f>
@@ -1678,7 +1686,7 @@
       </c>
       <c r="I10">
         <f>J8/I8</f>
-        <v>15.8</v>
+        <v>15.798999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1836,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17C5BB-565C-47D0-8F44-08BA11AC9CA0}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1851,12 +1859,12 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>2.1221649999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1916,7 +1924,7 @@
         <v>1.0687279999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1936,7 +1944,7 @@
         <v>0.57668299999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1956,7 +1964,7 @@
         <v>0.33907100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1976,7 +1984,7 @@
         <v>0.29881999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>B6/B7</f>
         <v>1.3760449511075155</v>
@@ -1998,7 +2006,7 @@
         <v>1.1346998192892044</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2035,10 +2043,10 @@
         <v>0.10359400000000001</v>
       </c>
       <c r="F11">
-        <v>4.9100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.4985E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2055,10 +2063,10 @@
         <v>0.115706</v>
       </c>
       <c r="F12">
-        <v>4.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.1235E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>3.3950000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2098,7 +2106,7 @@
         <v>6.0546000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2117,12 +2125,8 @@
       <c r="F15">
         <v>0.119204</v>
       </c>
-      <c r="L15">
-        <f>11/8</f>
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>0.270924</v>
       </c>
       <c r="F21">
-        <v>0.13047800000000001</v>
+        <v>0.12742000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">

--- a/figures/EXP.xlsx
+++ b/figures/EXP.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Failurer\Desktop\ructhesis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E5E06-CE71-4C9D-98A6-45C31D481D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB15C6E-E50C-4231-AA37-D99A48CD5E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16690" yWindow="2510" windowWidth="12490" windowHeight="9970" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPMEM-Throughput" sheetId="1" r:id="rId1"/>
     <sheet name="UPMEM-BreakDown" sheetId="4" r:id="rId2"/>
     <sheet name="PIMulator-Boost" sheetId="2" r:id="rId3"/>
-    <sheet name="PIMulator-Breakdown" sheetId="5" r:id="rId4"/>
-    <sheet name="UPMEM-Scalability" sheetId="3" r:id="rId5"/>
+    <sheet name="PIMulator-Boost-O0" sheetId="6" r:id="rId4"/>
+    <sheet name="PIMulator-Breakdown" sheetId="5" r:id="rId5"/>
+    <sheet name="UPMEM-Scalability" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
   <si>
     <t>LUT-M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +307,14 @@
   </si>
   <si>
     <t>4096x4096x2560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1115,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1373,8 +1382,8 @@
         <v>16809984</v>
       </c>
       <c r="D14">
-        <f>4096*4096*4+1</f>
-        <v>67108865</v>
+        <f>4096*4096*2</f>
+        <v>33554432</v>
       </c>
       <c r="E14">
         <f>4096*4096*2+4096*256</f>
@@ -1391,7 +1400,7 @@
       </c>
       <c r="D15">
         <f>D4-D14</f>
-        <v>204123023</v>
+        <v>237677456</v>
       </c>
       <c r="E15">
         <f>E4-E14</f>
@@ -1408,7 +1417,7 @@
       </c>
       <c r="D16">
         <f>D15/D4*D5</f>
-        <v>0.52582441163427662</v>
+        <v>0.61226120710514687</v>
       </c>
       <c r="E16">
         <f>E15/E4*E5</f>
@@ -1468,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741F7899-EFE9-4080-BE08-955075B81D2F}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1484,6 +1493,11 @@
     <col min="10" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>72</v>
@@ -1521,7 +1535,7 @@
         <v>698.69799999999998</v>
       </c>
       <c r="D3">
-        <v>525.824411634277</v>
+        <v>612.26120452913005</v>
       </c>
       <c r="E3">
         <v>298.82</v>
@@ -1590,7 +1604,7 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:H5" si="1">D4/D3</f>
-        <v>163.36127425697569</v>
+        <v>140.29852828265081</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -1651,38 +1665,50 @@
         <v>49</v>
       </c>
       <c r="C8">
+        <f>C5</f>
         <v>122.94202347795472</v>
       </c>
       <c r="D8">
-        <v>163.36127425697569</v>
+        <f t="shared" ref="D8:J8" si="2">D5</f>
+        <v>140.29852828265081</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
         <v>287.46183628940503</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
         <v>287.46183628940503</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
         <v>183.69319350589362</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
         <v>234.80442794778656</v>
       </c>
       <c r="I8">
+        <f t="shared" si="2"/>
         <v>145.69385048542375</v>
       </c>
       <c r="J8">
+        <f t="shared" si="2"/>
         <v>2301.8171438192098</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10">
-        <f>D8/C8</f>
-        <v>1.3287667604256468</v>
+        <f>D8/C8-1</f>
+        <v>0.14117633916940009</v>
       </c>
       <c r="E10">
         <f>F8/E8</f>
         <v>1</v>
+      </c>
+      <c r="G10">
+        <f>G3/H3-1</f>
+        <v>0.27824239682703911</v>
       </c>
       <c r="I10">
         <f>J8/I8</f>
@@ -1697,11 +1723,503 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6759E8C-6DAA-4EB7-960B-574FF8AA7293}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.9140625" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>C19*1000</f>
+        <v>866.33899999999994</v>
+      </c>
+      <c r="D3">
+        <f>C30*1000</f>
+        <v>736.4362111676478</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="D3:H3" si="0">E19*1000</f>
+        <v>1094.1499999999999</v>
+      </c>
+      <c r="F3">
+        <f>E30*1000</f>
+        <v>961.97680840311489</v>
+      </c>
+      <c r="G3">
+        <f>D19*1000</f>
+        <v>1031.681</v>
+      </c>
+      <c r="H3">
+        <f>D30*1000</f>
+        <v>884.25211348095502</v>
+      </c>
+      <c r="I3">
+        <v>971.64300000000003</v>
+      </c>
+      <c r="J3">
+        <f>I3/15.799</f>
+        <v>61.500284828153681</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>2*4096*4096*2560/1000000</f>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:J4" si="1">2*4096*4096*2560/1000000</f>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>85899.345920000007</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>85899.345920000007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f>C4/C3</f>
+        <v>99.152117035017483</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:H5" si="2">D4/D3</f>
+        <v>116.64193669103167</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>78.507833404926217</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>89.294612063042607</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>83.261537161196145</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>97.143500830151083</v>
+      </c>
+      <c r="I5">
+        <f>I4/I3</f>
+        <v>88.40628288373405</v>
+      </c>
+      <c r="J5">
+        <f>J4/J3</f>
+        <v>1396.7308632801144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <f>C5</f>
+        <v>99.152117035017483</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:J8" si="3">D5</f>
+        <v>116.64193669103167</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>78.507833404926217</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>89.294612063042607</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>83.261537161196145</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>97.143500830151083</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>88.40628288373405</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>1396.7308632801144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>D8/C8-1</f>
+        <v>0.17639380962322093</v>
+      </c>
+      <c r="E10">
+        <f>F8/E8-1</f>
+        <v>0.13739748239491645</v>
+      </c>
+      <c r="G10">
+        <f>H8/G8-1</f>
+        <v>0.16672720853182366</v>
+      </c>
+      <c r="I10">
+        <f>J8/I8</f>
+        <v>15.799000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f>C3/D3-1</f>
+        <v>0.17639380962322093</v>
+      </c>
+      <c r="E11">
+        <f>E3/F3-1</f>
+        <v>0.13739748239491645</v>
+      </c>
+      <c r="G11">
+        <f>G3/H3-1</f>
+        <v>0.16672720853182366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1031.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>346454160</v>
+      </c>
+      <c r="D17">
+        <v>412600336</v>
+      </c>
+      <c r="E17">
+        <v>437588768</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>335668464</v>
+      </c>
+      <c r="D18">
+        <v>374225120</v>
+      </c>
+      <c r="E18">
+        <v>416653120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>0.86633899999999997</v>
+      </c>
+      <c r="D19">
+        <v>1.0316810000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.09415</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>400000000</v>
+      </c>
+      <c r="D20">
+        <v>400000000</v>
+      </c>
+      <c r="E20">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <f>C17/C20</f>
+        <v>0.8661354</v>
+      </c>
+      <c r="D21">
+        <f>D17/D20</f>
+        <v>1.0315008400000001</v>
+      </c>
+      <c r="E21">
+        <f>E17/E20</f>
+        <v>1.09397192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <f>C17/C18</f>
+        <v>1.032131990808645</v>
+      </c>
+      <c r="D22">
+        <f>D17/D18</f>
+        <v>1.102545804514673</v>
+      </c>
+      <c r="E22">
+        <f>E17/E18</f>
+        <v>1.0502471888366034</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <f>C18/C17</f>
+        <v>0.96886833167193032</v>
+      </c>
+      <c r="D23">
+        <f>D18/D17</f>
+        <v>0.9069917965360067</v>
+      </c>
+      <c r="E23">
+        <f>E18/E17</f>
+        <v>0.95215679758946647</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>16.25</v>
+      </c>
+      <c r="D24">
+        <v>34.25</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:E25" si="4">C24/C19</f>
+        <v>18.757091623486879</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>33.198246357158851</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>18.279029383539736</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <f>C25/628</f>
+        <v>2.986798029217656E-2</v>
+      </c>
+      <c r="D26">
+        <f>D25/628</f>
+        <v>5.286344961331027E-2</v>
+      </c>
+      <c r="E26">
+        <f>E25/628</f>
+        <v>2.9106734687165185E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <f>4096*4096*3</f>
+        <v>50331648</v>
+      </c>
+      <c r="D28">
+        <f>4096*4096*3+4096*256*3</f>
+        <v>53477376</v>
+      </c>
+      <c r="E28">
+        <f>4096*4096*3</f>
+        <v>50331648</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <f>C18-C28</f>
+        <v>285336816</v>
+      </c>
+      <c r="D29">
+        <f>D18-D28</f>
+        <v>320747744</v>
+      </c>
+      <c r="E29">
+        <f>E18-E28</f>
+        <v>366321472</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <f>C29/C18*C19</f>
+        <v>0.73643621116764779</v>
+      </c>
+      <c r="D30">
+        <f>D29/D18*D19</f>
+        <v>0.884252113480955</v>
+      </c>
+      <c r="E30">
+        <f>E29/E18*E19</f>
+        <v>0.96197680840311484</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B289558-FFF3-4AB5-8D61-D56320DA5C5D}">
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1842,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17C5BB-565C-47D0-8F44-08BA11AC9CA0}">
   <dimension ref="A1:F28"/>
   <sheetViews>
